--- a/biology/Botanique/Amaranthus_hypochondriacus/Amaranthus_hypochondriacus.xlsx
+++ b/biology/Botanique/Amaranthus_hypochondriacus/Amaranthus_hypochondriacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Amarante hypocondriaque ou Amarante élégante[1] (Amaranthus hypochondriacus) est une espèce de plante herbacée de la famille des Amaranthaceae ou des Chenopodiaceae selon la classification classique de Cronquist (1981)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amarante hypocondriaque ou Amarante élégante (Amaranthus hypochondriacus) est une espèce de plante herbacée de la famille des Amaranthaceae ou des Chenopodiaceae selon la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine et répartitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'Amérique du Nord. Elle est cultivée dans les pays chauds comme plante alimentaire pour ses graines, consommées comme des céréales, et pour ses feuilles. C'est également une plante ornementale.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Habitus
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le semis se fait généralement dans une pépinière, à l’abri des vents.
 Après deux à trois semaines, les plants vigoureux sont repiqués dans un sol préalablement labouré en y incorporant de la matière organique. L’écartement entre les plants doit être d’environ 20 cm entre les plants.
@@ -614,10 +632,12 @@
           <t>Propriétés nutritionnelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’amarante à grains contient une grande quantité de protéines et permet de fournir les apports quotidiens des 8 acides aminés essentiels[5],[6].
-L’un des principaux avantages de l’amarante est la présence de fibres. Le rôle bénéfique des fibres alimentaires dans la nutrition humaine est connu et les grains d’amarante contiennent plus de 7 % de fibres, ce qui est plus que dans le blé, l’orge, le seigle, le riz et le maïs[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’amarante à grains contient une grande quantité de protéines et permet de fournir les apports quotidiens des 8 acides aminés essentiels,.
+L’un des principaux avantages de l’amarante est la présence de fibres. Le rôle bénéfique des fibres alimentaires dans la nutrition humaine est connu et les grains d’amarante contiennent plus de 7 % de fibres, ce qui est plus que dans le blé, l’orge, le seigle, le riz et le maïs,.
 Les grains contiennent plus de minéraux comme le fer (+20 %), le calcium (+300 %) et le magnésium (+4 %) que les grains de blé 20.
 Il existe des types d’amarante sans gluten comme le riz, le quinoa, le sarrasin ou le maïs.
 </t>
